--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/15_Bayburt_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/15_Bayburt_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4155A0F-977A-48AB-B394-05BE88359463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57CE83F-A01B-4048-8A8D-5741167C0137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="688" xr2:uid="{52C8DB02-30E3-4C91-9D9E-F52BA87EBF32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{4770FDF4-2E50-4A02-963C-02381F14EE56}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1022,14 +1022,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5766A6BA-C249-4ECB-A357-3116DF87ACF9}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A2C62307-0FE4-4FF4-929A-96F7D16F5CB3}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{32C52839-E115-467B-89BA-3A36B2308A5D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{9E17D1F3-C24D-497C-B997-7AE972AB749E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{78B0F993-8869-46D7-BDFA-B23311BE95EF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{64259740-F4A5-49A4-928C-403F91C9CFE9}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{D55F79DA-7F5D-4666-AF00-B84C854249F3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E2B5E2C3-014D-4333-B0D9-C6BE393D6A8C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D6B1F2FE-0963-4B40-A316-FC92024D4E89}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BA2EF6DD-745C-4588-8E7D-D986FF4ABD63}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1236334C-2EFB-48D7-B373-DC2003688F56}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{29BA6B11-2F73-4CC0-A00F-41FB51AF4839}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{43C76F63-2CD8-4993-85B9-141E5C9F4AA2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A5BAB84E-99AC-442C-BE69-93146A5F70F0}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{8E1FAFDF-BAB0-4CE2-B695-D910AAD7DBF8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8E64B0FF-2223-468D-956A-3D30700D3A43}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7A0AA0-4F84-44BB-AEF1-FC771A0C64C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735133C7-A272-486F-BB9F-13F3B6F27C89}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2627,17 +2627,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F668CD65-09C2-4D8E-861E-B0501271A006}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49363C91-09FB-4F5B-BD3E-869691DA2B70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{06D39453-8227-4B94-AD44-0D75B0EEA990}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2947D10C-5955-4690-BA2A-49F567430AFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BBACAFF9-51C1-480B-A8CF-7CCA2DD1B7D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F4BD928-E4F1-4A8C-B63E-FCD560E57E19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8CA0D68-283E-4800-8B50-5808E0C04DBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1C7CB93-7210-4FD0-ABC7-F1D6781DF812}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5759100F-6F65-4DC7-9ABF-E567E25BCF44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CCDF4C4A-A19C-4C49-AD01-CD5E9690D9E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA0B21BD-351E-40C3-8AAC-FEE7514BFADA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91DCB268-43FB-4011-B130-4B2073BC6317}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91093F80-38E2-4983-8649-D477F8C80AA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B611A262-D8C8-41F8-915E-B80D2877F3B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19735BA0-AE2E-4BAB-AD75-9E63138C8A4D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{624C46F4-7572-4345-B6FB-8AE5F7899B6A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF80DB98-1253-4F38-BA1F-A0AC6562D07E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22ABC87D-C8E0-48BB-A7FF-5483B301C69C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60F6364F-9429-42F8-A216-15B320BA8AF6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{22BB936B-35CD-40A2-8C99-0E182B16A6A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2A3C62BE-4992-4ACB-8D8D-72832F0C1FE8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA4FE383-C00C-4FC6-B14B-398C0CEE2EE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2650,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE3BD5-48B1-4918-880C-ED918AE60A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC38AAE-E687-418C-9CD6-7A6463B39CFA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3873,17 +3873,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EEEBEA7-20FF-4037-80A9-7ABFC2710062}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB7588A9-1EB7-4304-9D15-DFD0980A01D8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6CE5D3F-477A-4E91-8861-6B2FBCE4F783}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88A3F1AC-925A-4273-B44B-AAF9CAD96979}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EBD00B63-B45B-40EF-B6B6-C9D27C0D8A47}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94B84D27-7BCB-4363-A568-E9E2D4EFE9D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{376D978B-C442-41C6-960A-15270F7374BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3070A32F-15B9-4481-8DFF-238B6436C142}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{55A2B9F8-80F4-457C-B296-6A98FFA941DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1CDCFAFB-615F-4D33-A53B-0C96EA0D3D71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{442A85AD-843A-41C9-8B7A-673B91E32B40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2304F2F-4259-4FC6-A963-5063D232F8CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{284C74CE-A9C6-4DB2-B43C-48D54029ACDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4CF701E-F37D-46AA-9E4B-580C6FE33643}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24597333-0734-4EE6-88BE-B129DD66569B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F058807-14BE-45F6-BAA3-A45A55BF77B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0F2097E-9890-46E5-B592-AC4453E33C7B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2CBC133-7122-4630-9B80-1AA655C251AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29C8D9B8-BEAC-4C3A-8CBE-CC96D58537F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{41CC73D2-91E4-48A0-92BC-321DD6E27845}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E491D1FE-0EA6-4543-BB2E-DD479543AF19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFBC8587-E840-4997-8523-2B8B02326FDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3896,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E74B76-6088-4291-A7C5-85C3597A09C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF0ABA7-0BD7-4B00-BC4A-04BEBAA646C0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5113,17 +5113,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75C1002C-3B50-4138-8C14-220BADA456C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24DD741C-8202-44D1-B54C-FFAF98B9EAA0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE6DC7C7-E946-4FE9-8894-2AE8FEEC460C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92A58D49-75E5-4DDB-85B7-66846BD09C18}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBF620DB-F3BF-4112-855C-8D510F06708F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1524CCD-E357-448B-9957-D7F2A5F4F61D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5C8E2CF-DB0F-41B1-8EF2-A33DB9289F54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4EEE752-CC4A-4EA7-8AC7-B551EDC25F03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FEFB52BD-C18C-4979-9ACD-525EEA6FF399}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C216798C-93E6-43B6-B57B-43706DC6ED73}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15F840D6-5856-4FF6-8AEF-62E13042551A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACDC6579-767B-4B0D-9C0C-9E22D5445395}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59FF2E1C-E130-4497-823D-171F82980947}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF56C8F7-EC6E-4D3A-8F3E-6E565ACBF84B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B74BAA3-20EA-42CB-9264-36BB666FC010}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{054341F4-6E05-4790-9DB4-60A08AB13A84}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D4A7DD28-7FBA-4921-A5C8-5F93C6FB2599}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2837EDC-7736-4A2F-AAD3-00B7999EDA04}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01A2FB04-FF16-486F-AB42-90C3127E5945}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{074DA4E0-2855-46EE-AD65-27E05DDCC049}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4866D8E3-9BA2-48DF-BA60-478D235B2DB8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03F59EAE-1C06-4137-8390-05DF97F8CAC0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5136,7 +5136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8669AAAE-D96E-4BF2-83E4-E4BD9A2AD074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97463DC8-29BC-4990-ABCE-F8422F850744}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6353,17 +6353,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6FDFAB0-9633-4BC7-B322-775B03411BA1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E1FCF18-963F-4AE9-BB3A-9AC93E21F5BC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{461398B6-97A6-4A83-9147-279C5EF5CD4F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5E448BD-9338-4F7B-88D9-7D53FAF964D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61BA8C90-DD1F-4C29-8A4D-CB21A0291BF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4589CE7-2521-4CE8-9F02-F60DB4AB5407}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9624DBC-17CB-4C2F-85C6-4433FCA675FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5EA17D9C-8C34-4816-932D-B3244F460BCD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1C1D3C8A-B769-4ADB-8C23-487673E09B66}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D55CE173-DF2E-49E8-B2DC-371773480393}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE654DBD-9B94-4D14-AC8A-144288817165}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{889866CD-6D5D-4D42-9CCE-4562D571E546}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95DF1B4D-E190-41A8-863C-62F68CAD9A9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9B6E8BF8-9612-4AC0-9779-BDDF816EBBEA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43C5C724-738A-47F6-88B6-45078CB10394}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0126387C-7F4B-489B-9BA1-1B6523161C20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD5F21C2-4884-47A8-9879-C8BE8C1288FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0C9C101-6FCA-4730-BA05-66C514FA2C5F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{797B25B7-0C11-488D-819B-2B361ACEF557}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5C6347F4-925E-4E9D-8DD2-886CC4C5F11D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1F36B5D-907E-4ECB-8B3B-578F430ECC1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2741B9A-65B9-4A2D-BEF2-23C2CB6B7B3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6376,7 +6376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8B3D73-DA8E-4A43-93BA-A4352A6359B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BBB4EC-CFEC-4052-B66B-CE131CB60FF2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7601,17 +7601,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{370EBE27-16CF-4FEB-A275-CFF0D3A2BBF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC087B12-427B-41B8-8328-DA5539107D15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB4338C2-EFFD-4C5D-8B33-4CA63F79F7AD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CD6525C-D85B-4BA4-86B1-76AC92BBF6FC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1A6419B-6DB2-459F-BA47-B0F32CF4806C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B23166A7-C7B8-482A-B909-97A4D39C3795}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30E661A7-D0E4-429E-97E0-3BC9721C0CB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A434235A-1AEE-404A-B76A-54A257D16D2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5EB926AE-7732-44F0-86E6-9E9E6C6A82AF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0F1DD926-6645-4B95-BA0D-5C8C0E09BBAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD26B15A-5E34-4041-9BD8-B1CBCB6D805E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DB90803-9672-4D1C-B224-7937CF72BF7D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA0A106F-9671-45EE-9895-EE3A8929E8C6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F382A3F9-FE50-4B4A-9ED4-7649EECA857F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6153660E-51F6-4971-97FF-208B1F8B5FAB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D849DFB-CF8D-4BF7-A942-2B88E5CA1C9B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91A6EB07-5FEE-4A9B-A9EC-FDD9A5C50695}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59C17A97-984B-45A8-8415-57682027CE13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CDC7C5B-9B08-47DC-8A9D-A770CD0D7893}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F08D62FC-2982-4442-B898-4C499C22C5C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E0199E22-9CE4-4C8E-97EC-2525D4326929}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF2508CD-DA40-4AD7-B898-18A25861E25A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4833EF-1627-4F71-98B8-DABC9B0D49FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFEC8C3-699D-4D6B-9C45-E3F8851DF5B3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8849,17 +8849,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{824E8019-5DBA-493A-8EFA-6DAC390DB39A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44E3E1D1-D0F9-42D2-A6B0-55B542709595}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F4B2716-7B2E-4901-8F32-35841D854130}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{674259E0-D4A3-405A-9AC1-32A4735C0FAC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4E05728-1EB5-43E0-AE93-808FA8CE5501}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A501C6C-5319-4467-AB65-BEC5DB079473}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE77D796-8866-4589-BACC-6B617BD6A726}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9974D4F4-9708-47BE-83B7-80C4B67479C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{00E5E56F-0AEE-44C1-A1C1-81C4888640EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A0A351B6-49D9-46B5-B4FB-28CC68508A24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2985809-E468-4139-8503-D06007592708}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C434A769-3A7F-4C5A-8E75-A41AB5F389D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{271C6D15-A233-4B81-8F4B-4034C7EE7CED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A7C2AEE-015F-4B61-9B4B-E955B63A0C4A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13828868-A4CD-4773-BAF0-5E02F4F6A9EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09F63064-33F1-4C71-BE95-286EDF40B5AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8B47A24-2264-457A-BC1D-9211FE524161}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8CE8A9B-465F-4C0D-AD37-782B8E778F76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCEA6E2A-F378-4E7F-8471-EED9F775A71E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{215CE703-F43F-4ABA-9C9B-6811931898BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6E341892-63D2-4045-A3C5-8EE237E03944}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C490E842-6B10-4F0F-9512-BC67984BDB69}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8872,7 +8872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FECEF94-BB01-4DB2-8947-E42B9A71B6AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE535845-ACDB-422C-80A1-E0D91710287C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10097,17 +10097,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{257592C2-B629-45AA-944B-69F65CBBAA4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC82C732-89A7-4B79-ACA4-BE3C1B8BC0EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{834BBE40-FCF2-44AD-BF4F-77B42723BD11}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09A57E0B-E48D-4BEF-92B2-38218D7F190F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57AC4489-D76A-4FA9-B358-D24EC42193AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0D40468-3BE0-4A3D-B11C-45BE26A8D070}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13D2F64F-AB78-4A83-A22F-595ABF55A5EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AF59109-734D-4271-8FC0-540AF5FB1AB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1A21F5C6-934D-4450-B16D-7B13DF549BDC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6C84F209-0571-4A97-B264-6F3082F75555}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{505616BC-F57F-4D4F-A533-5609911150EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19ADC87A-0DBB-4A54-9D61-E7951F3FB64F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{090F344C-802F-4052-809D-87CF77E9E234}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{215391D4-AB95-487E-B020-C883A7543E0E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{563C5582-EC95-43D3-8099-757DC47759D5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{181390E3-F81D-484E-BAEB-3652AF852099}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC5E008C-7D51-4D21-A62E-7E1F6E529024}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C58178B-7D35-4BED-8572-AEFE3DC88AC6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68812468-5505-4E8E-9C6A-7CC8A46A37CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A24BDF95-9E31-4547-9A27-7EAC008CA721}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BF4CDCD8-8A76-4D00-9C3A-08C8A16EDF38}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54C5BE64-F71D-4752-9913-2B894155B01F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10120,7 +10120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63133CA-26DE-46BE-98B1-043591403416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC0FFC1-5496-4B29-BB96-3007649EC9D9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11345,17 +11345,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2774AC24-C252-4CC5-B4FB-8F995287E5E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FD927CA-DD78-42C9-9A2D-ED5C7B2BEFFD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DF3E552-1EE0-4D25-8A1B-B41FC38BC790}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{728C16ED-E72D-4040-8275-0979D9D8B540}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F176F85F-FFD0-4405-ABB3-00CD0DD527E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CB7DFBFB-9D4D-4352-950D-15E1342DC8D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35F3E7E6-FBE2-4BC7-A6EE-15E1957188C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21604D36-FFC6-4FC3-93DB-C5D459DA0163}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{26C96AA0-A920-4E6D-84A4-AC0982239CE8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6F66E807-1913-45F2-B599-6D12274CDC24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4701027A-58FB-4B73-AB5B-2C8E0C04A2D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{714AE444-AD48-40F5-BC11-DAD8A5F6744C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FC16D48-0A9C-4EFC-AF5D-3C44E3A76DCA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70A7178C-67B9-4BB5-94F8-C76346AA76A5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C56CFEAC-412C-43AD-B5FE-0D751B94D945}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC412BB9-C440-4950-841D-9D07AF5EE352}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B7CEEEC-400C-492B-9FFC-8AFD4098094E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E9CB388-4073-4D2C-A7DC-7A5870A17013}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C74998D4-9805-4A2E-B0A3-4B93E1CC0CE0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{98D71683-11BF-4A59-B211-A660CB092B9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D6A5B824-0E57-4017-9FB0-7FAA18830B42}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC067119-9CDE-4387-9FB7-A3DE2E9C2923}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11368,7 +11368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F8351-7D35-4136-8D27-D7AE929D4716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7781B946-ACA5-4D09-8FC6-C0FA07CF172A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12700,17 +12700,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDCE54A4-BCEA-4D34-9F63-F2B32CA8D918}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB670131-D4C3-466A-8577-400FAAB2D4EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9BA5A96F-4D03-4AEE-8603-D45A15D75856}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72D7B0DA-6388-4BAD-AD1D-D8F10513D668}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0327E41-5A82-44E2-8C81-219E3C9ABAB9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6894F74-C39A-4622-87B8-EC3104B684AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21117910-11CD-4746-AC7C-832B48E3E0E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CADB7C6-09AF-435E-BDA5-C89B15F43212}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{43181519-65DE-4D4F-AFF3-E42203C41CC6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FE301F00-7918-4252-8412-A1642A07262B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8E234D3-6D30-4AF5-B85E-798A020259B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE78E133-BE43-49F1-BD2D-666B109428EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47A24A24-59F4-4615-A9E2-DB09A2880FA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{182CE476-22DC-48D7-BEEE-96078C3F60C2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F06B6725-ED27-44FA-A8F3-BA7EB420A052}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C98E929-56B6-4732-99D7-B512FFA05D49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8454AE46-8C82-463D-B3F0-DA7BB6BB8BFF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93879A5A-EF66-449B-9492-404EBA884784}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADF8294F-0EA3-4116-B18B-6F6CA702BA38}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7A83B434-76CD-41AD-97B1-7A79A3709269}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{308E16A0-A6F9-4BA3-BF09-FA68250ACE64}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85F012DD-3CFF-4AFA-92DD-825B659D8DAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12723,7 +12723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7147FEE7-EA03-44FF-B69D-4F13009CDC02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABC7A1C-52D8-4E5A-8653-203AB5F02AA2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13948,17 +13948,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DE661A5-0CED-412D-9A9D-2E3D9C604FDB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C09D1103-CADD-46BC-A236-F2483E4BBF3F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9041797E-5637-463B-9116-AB64B492E339}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F54B0128-F853-4355-9E88-EF3B8B0A584C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FFF1FFF-6BE3-4E57-AA2F-3D03805626A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A2022C23-3DE3-4344-84E2-539862A5A96E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AEC198F0-142F-4D9A-95EB-79F8932FD97B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF4284B3-D439-49EE-B48F-1F0D57AD415A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9B5A76AC-95C1-4367-8A56-8FE5073D9B5D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7E5E0A29-D402-4B3C-A578-831BDA4B7C53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C36835E3-0BED-4CF5-879C-49F9E4D6E432}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADEAF63A-1FB1-4501-8933-5C589DD2ED96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75D001AC-3252-4288-82CA-D23983FD99CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B9D2607-5A01-4ADD-8556-13ADAB179D6A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{236F9847-6832-4F12-AFED-F9350B428C76}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B7FBCCF-881E-450E-B7AF-BDCFFECC92A2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD75FB41-3FBB-4BC1-A6C0-43DF176AD568}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5C684C4-33BF-4A88-AEB5-F3921012D2D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB073A1C-3AED-47C5-9297-5997844D2DBA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{85929B32-1CE6-4916-B333-1019E1D44183}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{54378C13-598A-4D44-A90C-EA4318DD1215}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F83AA49-8C5D-4F96-B7E4-BC61DC872DE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13971,7 +13971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F19B299-6914-4D69-9A83-88FC868840BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D912B8E2-37D7-4565-A67E-7FE26BA45E53}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15196,17 +15196,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEBB2AB4-4B00-4611-A065-A1CBAC29E933}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81C36345-3881-4168-89ED-B6CB3045CD4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27AD5BCB-2F34-4868-BF94-B0BA06EFFDB9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76AFE700-82B6-45F4-8CBA-905A5CD37AAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E72AF6F-B65B-4D52-8325-E1B042858738}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA05AAC3-0E5A-43F6-B0C2-DBB34CD38D08}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{669FB75F-F2AB-40C2-8E03-484C5848A6DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E4D1488-D39F-480D-91EA-4BF95F2DC54C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B4418B44-C56B-43C4-896E-388DD19A6414}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CB391A3F-421F-49A1-88AE-2B6756A12B43}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0078D7A-28D4-4AA4-987A-B80997F47E2E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83759EB9-BA58-40B8-97C6-16286D1CE697}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37215C00-1AE5-48A1-A4FD-67AE8B2379B2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7BDA9632-328A-4246-BAE5-601DEC6E270B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{877DA89F-88B5-49F3-BDFB-3287879255DA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F24DB648-15CC-4B79-A60F-6528753E5CF2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A046BB4-7403-4110-B028-85309E294F07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{485F91C2-761F-45FE-941D-560E0A0A722D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63D3BCE9-3395-4CC6-89C3-5A692F199E37}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{21F92952-E1D4-4605-B0B9-82C33CE8984C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2CFA71D4-1F51-4DA4-89A5-07F4C77DB40B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D8DDFBE-6F69-4794-BC6C-1B50E5A1B9FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15219,7 +15219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841EBC18-BA7B-4E1E-956B-9244C3FDE076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A95E0B4-113C-4541-A077-39B26A2BB59E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16442,17 +16442,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E84E7425-0DCE-4ED1-8DE0-9B1DC2A8F2CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B941E82-6C8D-4C01-B824-890D89BFB95A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{552FA34A-4A56-4CCB-BF66-2723FBBAFF44}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02DA4671-8FC9-4AAB-AADD-74F6FD1D3891}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0943ACC-BDD1-4ADF-BABD-339E63D92CBC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDB4EC6F-1578-4CBA-A8EE-B7DD916C0F99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E1CD3BA-4878-46F2-80B2-4FB1363B3B8E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A8A61E2-0255-451A-AD23-556338B3C785}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2E3E5DB4-3130-4155-8F48-060E14B3C449}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3321A2CA-F68D-4F88-BCB5-EB3B6754BCE8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75B85A8A-6867-47A5-AB82-7EB60C4EC758}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8519A902-DAFC-447A-8739-61E7899CE9DF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B3EDDC2-5475-4222-9F78-7B220DDC948F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ECFC3D47-94A6-4CD9-BCBE-934E7DD63397}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B20591B1-AC8E-4717-B6A1-FAA01CB1D93E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C4D20A1-E7C9-4A46-ADE2-947A9F769BA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D97AD71B-8254-4166-A516-7192C0222BBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA57E3CE-8F5B-4EF2-AAD4-C888EE241A90}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5863E21-3240-462C-A6F8-A710519D9391}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E4D7B4A0-3EE0-435D-AA5C-4B9A1BB23C9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AF494AE2-2D6C-4F97-AAB3-F24EB2C8A306}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{763DF677-15EE-4F6C-9600-6B8B37D57545}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
